--- a/Manual.xlsx
+++ b/Manual.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox\SimplyCo-op\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Personal\Documents\Raeyz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="8895" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="8895" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gameplay" sheetId="2" r:id="rId1"/>
@@ -4273,6 +4273,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF6E4581"/>
       <color rgb="FFFF5757"/>
@@ -4334,6 +4400,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4496,7 +4563,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4557,6 +4626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4664,6 +4734,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4831,7 +4902,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4892,6 +4965,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5002,6 +5076,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5112,6 +5187,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5146,7 +5222,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5171,6 +5249,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5207,7 +5286,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5230,6 +5311,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5264,7 +5346,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5289,6 +5373,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5325,7 +5410,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5350,6 +5437,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5386,7 +5474,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5412,6 +5502,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5448,7 +5539,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5471,6 +5564,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5505,7 +5599,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5531,6 +5627,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5567,7 +5664,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5590,6 +5689,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5624,7 +5724,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5649,6 +5751,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5685,7 +5788,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5708,6 +5813,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5742,7 +5848,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -5765,6 +5873,7 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5799,7 +5908,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6757,6 +6868,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7123,6 +7235,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7313,7 +7426,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7380,6 +7495,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8762,6 +8878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8926,7 +9043,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -8987,6 +9106,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9112,6 +9232,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9274,7 +9395,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9335,6 +9458,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9455,6 +9579,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9617,7 +9742,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -9678,6 +9805,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9811,6 +9939,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9975,7 +10104,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10036,6 +10167,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10164,6 +10296,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10331,7 +10464,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10392,6 +10527,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10521,6 +10657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10685,7 +10822,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -10746,6 +10885,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10866,6 +11006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11033,7 +11174,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11094,6 +11237,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11223,6 +11367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11387,7 +11532,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11448,6 +11595,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21273,8 +21421,8 @@
     <dgm:cxn modelId="{2A634C9E-E9B2-4113-890C-5ACF8BB82E37}" srcId="{A59C16B8-0E08-4753-B56A-31C08D113FA4}" destId="{FC7B97E8-E636-4F5A-9090-A403A596BC4A}" srcOrd="2" destOrd="0" parTransId="{62EC3FE2-3FDC-40B4-A97A-F71CAFCE45F3}" sibTransId="{FCD42979-4BF2-471B-9288-1D152483EDE1}"/>
     <dgm:cxn modelId="{79693EDE-10B7-49A0-88FE-F3753564E539}" type="presOf" srcId="{25BA9051-2E2C-413B-A82F-F56EADDF02E7}" destId="{EF06A735-A7A1-42CB-B395-437B21EAFEB4}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/target3"/>
     <dgm:cxn modelId="{9887E3D0-F29D-429D-90B6-EBCFDFC8C043}" srcId="{E1584DC1-2231-4B0E-8735-2F042E2E8ACC}" destId="{FFB665E1-D8E1-41CC-BC18-257C4AB6ABB4}" srcOrd="1" destOrd="0" parTransId="{E2BBDA93-F55B-4B7F-A067-4DAA0ACB4630}" sibTransId="{BAF37C83-9108-418F-8FC3-681C78679118}"/>
+    <dgm:cxn modelId="{AA62096B-AC6B-4CDA-8D07-F6F6B4AE659B}" type="presOf" srcId="{FFB665E1-D8E1-41CC-BC18-257C4AB6ABB4}" destId="{EF06A735-A7A1-42CB-B395-437B21EAFEB4}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/target3"/>
     <dgm:cxn modelId="{B9725F22-90B0-476A-9835-37B6DA3A473A}" type="presOf" srcId="{5D75E563-AE95-411F-B5E6-14F6A1DD20AB}" destId="{F150AD4B-96C8-4C32-BBEE-6FD974070F39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/target3"/>
-    <dgm:cxn modelId="{AA62096B-AC6B-4CDA-8D07-F6F6B4AE659B}" type="presOf" srcId="{FFB665E1-D8E1-41CC-BC18-257C4AB6ABB4}" destId="{EF06A735-A7A1-42CB-B395-437B21EAFEB4}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/target3"/>
     <dgm:cxn modelId="{88C6DBF6-9766-48BA-A725-96CC10044A5D}" srcId="{14590B24-3790-4F9A-8C9E-4028F8EC46E9}" destId="{3AF20581-CD45-48F9-8B7B-5511113C515A}" srcOrd="0" destOrd="0" parTransId="{04E7199E-7C78-4131-9205-36AA5730174C}" sibTransId="{7CF41337-267D-4C2E-9072-4D6B7A0A807D}"/>
     <dgm:cxn modelId="{3CE10710-6B64-4422-AC43-97517E1A89B8}" srcId="{5D75E563-AE95-411F-B5E6-14F6A1DD20AB}" destId="{A59C16B8-0E08-4753-B56A-31C08D113FA4}" srcOrd="1" destOrd="0" parTransId="{3240B08B-77AE-4673-AE7E-70B1FB11E287}" sibTransId="{96188A32-6D06-41C5-B1B1-98346AE84A14}"/>
     <dgm:cxn modelId="{8D6C63F3-FEBC-401C-8322-E03D5A936ED4}" type="presOf" srcId="{3AF20581-CD45-48F9-8B7B-5511113C515A}" destId="{3E00A0C6-4272-48D6-B5E0-5CC005B92778}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/target3"/>
@@ -32991,7 +33139,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="565656"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -33506,7 +33654,7 @@
   </sheetPr>
   <dimension ref="A1:Z402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
@@ -42739,9 +42887,9 @@
   </sheetPr>
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48299,24 +48447,6 @@
       <c r="B200" s="1">
         <v>199</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" s="95" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H200" s="19" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="201" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -48327,19 +48457,19 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1018</v>
+        <v>149</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>1019</v>
+        <v>35</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G201" s="95" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H201" s="19" t="s">
         <v>3</v>
@@ -48354,13 +48484,23 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="93"/>
-      <c r="H202" s="19"/>
+        <v>1017</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G202" s="95" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -48370,7 +48510,9 @@
       <c r="B203" s="1">
         <v>202</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="1" t="s">
+        <v>1021</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="5"/>
       <c r="F203" s="4"/>
@@ -49189,7 +49331,7 @@
     </row>
     <row r="258" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <f t="shared" ref="A258:A321" si="4">IF(B258 &gt; 0,B258+398,"")</f>
+        <f t="shared" ref="A258:A301" si="4">IF(B258 &gt; 0,B258+398,"")</f>
         <v>655</v>
       </c>
       <c r="B258" s="1">
@@ -49851,7 +49993,7 @@
   <sortState ref="A2:I301">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="H304:H1048576 H2:H187 H189:H302">
+  <conditionalFormatting sqref="H304:H1048576 H2:H187 H189:H199 H201:H302">
     <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="/">
       <formula>NOT(ISERROR(SEARCH("/",H2)))</formula>
     </cfRule>
@@ -49865,7 +50007,7 @@
       <formula>NOT(ISERROR(SEARCH("U",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H304:H1048576 H2:H187 H189:H302">
+  <conditionalFormatting sqref="H304:H1048576 H2:H187 H189:H199 H201:H302">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",H2)))</formula>
     </cfRule>
